--- a/bloodhound/credenciais_oi_raid7_v19122017.xlsx
+++ b/bloodhound/credenciais_oi_raid7_v19122017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\bloodhound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\buddhascoopa\bloodhound\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15000" windowWidth="8040" windowHeight="2340" tabRatio="813" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="15000" windowWidth="8040" windowHeight="2340" tabRatio="813" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'ME Ondas'!$A$1:$I$23</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -2024,7 +2024,7 @@
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2222,21 +2222,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2259,6 +2244,36 @@
     <xf numFmtId="44" fontId="9" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3050,7 +3065,7 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="97" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
@@ -3061,7 +3076,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="97"/>
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -3070,7 +3085,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="87"/>
+      <c r="A22" s="97"/>
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -3339,10 +3354,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3400,7 +3416,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.5">
+    <row r="2" spans="1:15" ht="28.5" hidden="1">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -3439,7 +3455,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.5">
+    <row r="3" spans="1:15" ht="28.5" hidden="1">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -3478,7 +3494,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="42.75">
+    <row r="4" spans="1:15" ht="42.75" hidden="1">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -3522,28 +3538,28 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="35">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="102" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="103" t="s">
         <v>353</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="104">
         <v>0.06</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="106">
         <f>L1*E5</f>
         <v>480000</v>
       </c>
@@ -3559,28 +3575,28 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="35">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="39">
         <v>3</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="103" t="s">
         <v>354</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="104">
         <v>0.02</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="105" t="s">
         <v>388</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="106">
         <f>L1*E6</f>
         <v>160000</v>
       </c>
@@ -3648,7 +3664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" hidden="1">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -3678,7 +3694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5">
+    <row r="10" spans="1:15" ht="28.5" hidden="1">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -3708,7 +3724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="28.5">
+    <row r="11" spans="1:15" ht="28.5" hidden="1">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -3738,7 +3754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" hidden="1">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -3768,7 +3784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" hidden="1">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -3798,7 +3814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" hidden="1">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -3828,7 +3844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="28.5">
+    <row r="15" spans="1:15" ht="28.5" hidden="1">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -3858,7 +3874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" hidden="1">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -3888,7 +3904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -3918,7 +3934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -3948,7 +3964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.5">
+    <row r="19" spans="1:9" ht="28.5" hidden="1">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -3978,7 +3994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -4008,7 +4024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="57">
+    <row r="21" spans="1:9" ht="57" hidden="1">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -4038,7 +4054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.5">
+    <row r="22" spans="1:9" ht="28.5" hidden="1">
       <c r="A22" s="35">
         <v>21</v>
       </c>
@@ -4068,7 +4084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -4098,8 +4114,29 @@
         <v>45</v>
       </c>
     </row>
+    <row r="32" spans="1:9">
+      <c r="H32" s="30">
+        <v>640000</v>
+      </c>
+      <c r="I32" s="30">
+        <v>141.75</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="30">
+        <f>H32/I32</f>
+        <v>4514.9911816578488</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I23"/>
+  <autoFilter ref="A1:I23">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="3"/>
+        <filter val="4/5/6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4135,15 +4172,15 @@
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="97" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
     </row>
     <row r="3" spans="2:14" ht="45">
       <c r="B3" s="61" t="s">
@@ -4229,15 +4266,15 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="97" t="s">
         <v>324</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="10" spans="2:14" ht="45">
       <c r="B10" s="61" t="s">
@@ -4873,19 +4910,19 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="L20" s="88" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="L20" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="97" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
@@ -4894,7 +4931,7 @@
       <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="87" t="s">
+      <c r="L21" s="97" t="s">
         <v>74</v>
       </c>
       <c r="M21" t="s">
@@ -4905,14 +4942,14 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="87"/>
+      <c r="A22" s="97"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>1549</v>
       </c>
-      <c r="L22" s="87"/>
+      <c r="L22" s="97"/>
       <c r="M22" t="s">
         <v>14</v>
       </c>
@@ -4921,14 +4958,14 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="87"/>
+      <c r="A23" s="97"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="87"/>
+      <c r="L23" s="97"/>
       <c r="M23" t="s">
         <v>13</v>
       </c>
@@ -4977,7 +5014,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="97" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
@@ -4986,7 +5023,7 @@
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="87" t="s">
+      <c r="L32" s="97" t="s">
         <v>78</v>
       </c>
       <c r="M32" t="s">
@@ -4997,14 +5034,14 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="87"/>
+      <c r="A33" s="97"/>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>1549</v>
       </c>
-      <c r="L33" s="87"/>
+      <c r="L33" s="97"/>
       <c r="M33" t="s">
         <v>14</v>
       </c>
@@ -5013,14 +5050,14 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="87"/>
+      <c r="A34" s="97"/>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="87"/>
+      <c r="L34" s="97"/>
       <c r="M34" t="s">
         <v>13</v>
       </c>
@@ -5516,19 +5553,19 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="L20" s="88" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="L20" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="97" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
@@ -5537,7 +5574,7 @@
       <c r="C21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="87" t="s">
+      <c r="L21" s="97" t="s">
         <v>74</v>
       </c>
       <c r="M21" t="s">
@@ -5548,14 +5585,14 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="87"/>
+      <c r="A22" s="97"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>1549</v>
       </c>
-      <c r="L22" s="87"/>
+      <c r="L22" s="97"/>
       <c r="M22" t="s">
         <v>14</v>
       </c>
@@ -5564,14 +5601,14 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="87"/>
+      <c r="A23" s="97"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="87"/>
+      <c r="L23" s="97"/>
       <c r="M23" t="s">
         <v>13</v>
       </c>
@@ -5620,7 +5657,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="97" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
@@ -5629,7 +5666,7 @@
       <c r="C32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="87" t="s">
+      <c r="L32" s="97" t="s">
         <v>78</v>
       </c>
       <c r="M32" t="s">
@@ -5640,14 +5677,14 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="87"/>
+      <c r="A33" s="97"/>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>1549</v>
       </c>
-      <c r="L33" s="87"/>
+      <c r="L33" s="97"/>
       <c r="M33" t="s">
         <v>14</v>
       </c>
@@ -5656,14 +5693,14 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="87"/>
+      <c r="A34" s="97"/>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L34" s="87"/>
+      <c r="L34" s="97"/>
       <c r="M34" t="s">
         <v>13</v>
       </c>
@@ -6263,7 +6300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -6286,17 +6323,17 @@
         <v>245</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="29" t="s">
@@ -6619,10 +6656,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="90"/>
+      <c r="G1" s="100"/>
       <c r="I1" s="30" t="s">
         <v>267</v>
       </c>
@@ -6630,10 +6667,10 @@
     <row r="2" spans="1:9">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="91"/>
+      <c r="D2" s="101"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="37"/>
@@ -6951,11 +6988,11 @@
       <c r="H1" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
       <c r="M1" s="30" t="s">
         <v>267</v>
       </c>
@@ -6966,16 +7003,16 @@
     <row r="2" spans="1:23">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="91"/>
+      <c r="D2" s="101"/>
       <c r="E2" s="36"/>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="91"/>
-      <c r="O2" s="93" t="s">
+      <c r="G2" s="101"/>
+      <c r="O2" s="88" t="s">
         <v>439</v>
       </c>
       <c r="Q2" s="30" t="s">
@@ -7013,7 +7050,7 @@
       <c r="G3" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="O3" s="93"/>
+      <c r="O3" s="88"/>
       <c r="T3" s="75" t="s">
         <v>392</v>
       </c>
@@ -7044,8 +7081,8 @@
       <c r="M4" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N4" s="92"/>
-      <c r="O4" s="96" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="91" t="s">
         <v>304</v>
       </c>
       <c r="Q4" s="77">
@@ -7099,8 +7136,8 @@
       <c r="M5" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N5" s="92"/>
-      <c r="O5" s="96" t="s">
+      <c r="N5" s="87"/>
+      <c r="O5" s="91" t="s">
         <v>308</v>
       </c>
       <c r="Q5" s="77">
@@ -7127,7 +7164,7 @@
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
       <c r="M6" s="37"/>
-      <c r="O6" s="94"/>
+      <c r="O6" s="89"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="30" t="s">
@@ -7155,14 +7192,14 @@
       <c r="M7" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N7" s="92"/>
-      <c r="O7" s="98" t="s">
+      <c r="N7" s="87"/>
+      <c r="O7" s="93" t="s">
         <v>305</v>
       </c>
       <c r="Q7" s="77">
         <v>80</v>
       </c>
-      <c r="R7" s="97">
+      <c r="R7" s="92">
         <v>1536</v>
       </c>
       <c r="S7" s="77" t="s">
@@ -7183,7 +7220,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="M8" s="37"/>
-      <c r="O8" s="94"/>
+      <c r="O8" s="89"/>
     </row>
     <row r="9" spans="1:23">
       <c r="C9" s="35"/>
@@ -7192,7 +7229,7 @@
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="M9" s="37"/>
-      <c r="O9" s="94"/>
+      <c r="O9" s="89"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="30" t="s">
@@ -7220,8 +7257,8 @@
       <c r="M10" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N10" s="92"/>
-      <c r="O10" s="96" t="s">
+      <c r="N10" s="87"/>
+      <c r="O10" s="91" t="s">
         <v>306</v>
       </c>
       <c r="Q10" s="77">
@@ -7248,14 +7285,14 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="M11" s="37"/>
-      <c r="O11" s="94"/>
+      <c r="O11" s="89"/>
     </row>
     <row r="12" spans="1:23">
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="M12" s="37"/>
-      <c r="O12" s="94"/>
+      <c r="O12" s="89"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="30" t="s">
@@ -7283,8 +7320,8 @@
       <c r="M13" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="92"/>
-      <c r="O13" s="96" t="s">
+      <c r="N13" s="87"/>
+      <c r="O13" s="91" t="s">
         <v>307</v>
       </c>
       <c r="Q13" s="77">
@@ -7308,7 +7345,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="M14" s="37"/>
-      <c r="O14" s="94"/>
+      <c r="O14" s="89"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="36" t="s">
@@ -7337,11 +7374,11 @@
         <v>284</v>
       </c>
       <c r="M15" s="37"/>
-      <c r="O15" s="95"/>
+      <c r="O15" s="90"/>
     </row>
     <row r="16" spans="1:23">
       <c r="M16" s="37"/>
-      <c r="O16" s="94"/>
+      <c r="O16" s="89"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="30" t="s">
@@ -7366,8 +7403,8 @@
       <c r="M17" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N17" s="92"/>
-      <c r="O17" s="96" t="s">
+      <c r="N17" s="87"/>
+      <c r="O17" s="91" t="s">
         <v>397</v>
       </c>
       <c r="Q17" s="77">
@@ -7410,8 +7447,8 @@
       <c r="M18" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N18" s="92"/>
-      <c r="O18" s="96" t="s">
+      <c r="N18" s="87"/>
+      <c r="O18" s="91" t="s">
         <v>398</v>
       </c>
       <c r="Q18" s="77">
@@ -7448,8 +7485,8 @@
       <c r="M19" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N19" s="92"/>
-      <c r="O19" s="96" t="s">
+      <c r="N19" s="87"/>
+      <c r="O19" s="91" t="s">
         <v>399</v>
       </c>
       <c r="Q19" s="77">
@@ -7486,8 +7523,8 @@
       <c r="M20" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N20" s="92"/>
-      <c r="O20" s="96" t="s">
+      <c r="N20" s="87"/>
+      <c r="O20" s="91" t="s">
         <v>400</v>
       </c>
       <c r="Q20" s="77">
@@ -7530,8 +7567,8 @@
       <c r="M21" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N21" s="92"/>
-      <c r="O21" s="98" t="s">
+      <c r="N21" s="87"/>
+      <c r="O21" s="93" t="s">
         <v>401</v>
       </c>
       <c r="Q21" s="77">
@@ -7620,8 +7657,8 @@
       <c r="M25" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="30" t="s">
@@ -7654,8 +7691,8 @@
       <c r="M26" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="30" t="s">
@@ -7687,8 +7724,8 @@
       <c r="M27" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="30" t="s">
@@ -7704,9 +7741,9 @@
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
       <c r="J28" s="35"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
     </row>
     <row r="29" spans="1:23">
       <c r="C29" s="35"/>
@@ -7715,15 +7752,15 @@
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
       <c r="J29" s="35"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
     </row>
     <row r="30" spans="1:23">
       <c r="R30" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="T30" s="101">
+      <c r="T30" s="96">
         <f>T22*1000</f>
         <v>750000</v>
       </c>
@@ -7744,15 +7781,15 @@
         <f>C31</f>
         <v>25190.399999999998</v>
       </c>
-      <c r="H31" s="99">
+      <c r="H31" s="94">
         <f>8.2*(H25*1024)</f>
         <v>33587.204198399995</v>
       </c>
-      <c r="I31" s="99">
+      <c r="I31" s="94">
         <f>H31*0.2</f>
         <v>6717.440839679999</v>
       </c>
-      <c r="J31" s="100">
+      <c r="J31" s="95">
         <v>75571.199999999997</v>
       </c>
       <c r="R31" s="30" t="s">
@@ -7775,11 +7812,11 @@
         <f>C32*0.2</f>
         <v>10076.16</v>
       </c>
-      <c r="H32" s="99">
+      <c r="H32" s="94">
         <f>8.2*(H26*1024)</f>
         <v>75571.199999999997</v>
       </c>
-      <c r="I32" s="99">
+      <c r="I32" s="94">
         <f>H32*0.2</f>
         <v>15114.24</v>
       </c>
@@ -7803,7 +7840,7 @@
       <c r="A34" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="H34" s="99">
+      <c r="H34" s="94">
         <v>10000</v>
       </c>
     </row>
@@ -7820,7 +7857,7 @@
         <f>K22*1000</f>
         <v>471000</v>
       </c>
-      <c r="T35" s="100">
+      <c r="T35" s="95">
         <f>SUM(T30:T33)</f>
         <v>1042561.28503808</v>
       </c>

--- a/bloodhound/credenciais_oi_raid7_v19122017.xlsx
+++ b/bloodhound/credenciais_oi_raid7_v19122017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15000" windowWidth="8040" windowHeight="2340" tabRatio="813" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="15000" windowWidth="8040" windowHeight="2340" tabRatio="813" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="455">
   <si>
     <t>raid_pi_adm</t>
   </si>
@@ -1661,6 +1661,9 @@
   </si>
   <si>
     <t>hdcpx02.interno</t>
+  </si>
+  <si>
+    <t>[FMSDX02 - APP] - [FMSDX03 - BD]</t>
   </si>
 </sst>
 </file>
@@ -2244,6 +2247,21 @@
     <xf numFmtId="44" fontId="9" fillId="11" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2258,21 +2276,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3065,7 +3068,7 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="102" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
@@ -3076,7 +3079,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="97"/>
+      <c r="A21" s="102"/>
       <c r="B21" t="s">
         <v>14</v>
       </c>
@@ -3085,7 +3088,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="97"/>
+      <c r="A22" s="102"/>
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -3357,8 +3360,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3544,22 +3547,22 @@
       <c r="B5" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="97" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="98" t="s">
         <v>353</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="99">
         <v>0.06</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="106">
+      <c r="H5" s="101">
         <f>L1*E5</f>
         <v>480000</v>
       </c>
@@ -3584,19 +3587,19 @@
       <c r="C6" s="39">
         <v>3</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="E6" s="104">
+      <c r="E6" s="99">
         <v>0.02</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="100" t="s">
         <v>388</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="106">
+      <c r="H6" s="101">
         <f>L1*E6</f>
         <v>160000</v>
       </c>
@@ -4172,15 +4175,15 @@
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="102" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="2:14" ht="45">
       <c r="B3" s="61" t="s">
@@ -4266,15 +4269,15 @@
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="102" t="s">
         <v>324</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
     </row>
     <row r="10" spans="2:14" ht="45">
       <c r="B10" s="61" t="s">
@@ -4910,19 +4913,19 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="L20" s="98" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="L20" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="102" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
@@ -4931,7 +4934,7 @@
       <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="97" t="s">
+      <c r="L21" s="102" t="s">
         <v>74</v>
       </c>
       <c r="M21" t="s">
@@ -4942,14 +4945,14 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="97"/>
+      <c r="A22" s="102"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>1549</v>
       </c>
-      <c r="L22" s="97"/>
+      <c r="L22" s="102"/>
       <c r="M22" t="s">
         <v>14</v>
       </c>
@@ -4958,14 +4961,14 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="97"/>
+      <c r="A23" s="102"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="97"/>
+      <c r="L23" s="102"/>
       <c r="M23" t="s">
         <v>13</v>
       </c>
@@ -5014,7 +5017,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="102" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
@@ -5023,7 +5026,7 @@
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L32" s="97" t="s">
+      <c r="L32" s="102" t="s">
         <v>78</v>
       </c>
       <c r="M32" t="s">
@@ -5034,14 +5037,14 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="97"/>
+      <c r="A33" s="102"/>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>1549</v>
       </c>
-      <c r="L33" s="97"/>
+      <c r="L33" s="102"/>
       <c r="M33" t="s">
         <v>14</v>
       </c>
@@ -5050,14 +5053,14 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="97"/>
+      <c r="A34" s="102"/>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="97"/>
+      <c r="L34" s="102"/>
       <c r="M34" t="s">
         <v>13</v>
       </c>
@@ -5553,19 +5556,19 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="L20" s="98" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="L20" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="103"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="102" t="s">
         <v>55</v>
       </c>
       <c r="B21" t="s">
@@ -5574,7 +5577,7 @@
       <c r="C21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L21" s="97" t="s">
+      <c r="L21" s="102" t="s">
         <v>74</v>
       </c>
       <c r="M21" t="s">
@@ -5585,14 +5588,14 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="97"/>
+      <c r="A22" s="102"/>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>1549</v>
       </c>
-      <c r="L22" s="97"/>
+      <c r="L22" s="102"/>
       <c r="M22" t="s">
         <v>14</v>
       </c>
@@ -5601,14 +5604,14 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="97"/>
+      <c r="A23" s="102"/>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="97"/>
+      <c r="L23" s="102"/>
       <c r="M23" t="s">
         <v>13</v>
       </c>
@@ -5657,7 +5660,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="102" t="s">
         <v>59</v>
       </c>
       <c r="B32" t="s">
@@ -5666,7 +5669,7 @@
       <c r="C32" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L32" s="97" t="s">
+      <c r="L32" s="102" t="s">
         <v>78</v>
       </c>
       <c r="M32" t="s">
@@ -5677,14 +5680,14 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="97"/>
+      <c r="A33" s="102"/>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1">
         <v>1549</v>
       </c>
-      <c r="L33" s="97"/>
+      <c r="L33" s="102"/>
       <c r="M33" t="s">
         <v>14</v>
       </c>
@@ -5693,14 +5696,14 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="97"/>
+      <c r="A34" s="102"/>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L34" s="97"/>
+      <c r="L34" s="102"/>
       <c r="M34" t="s">
         <v>13</v>
       </c>
@@ -6298,10 +6301,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6323,17 +6326,17 @@
         <v>245</v>
       </c>
       <c r="B1" s="29"/>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="29" t="s">
@@ -6565,7 +6568,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>312</v>
       </c>
@@ -6573,7 +6576,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>311</v>
       </c>
@@ -6581,12 +6584,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11">
       <c r="A19" s="30" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>447</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11">
       <c r="B22" s="14" t="s">
         <v>448</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="B23" t="s">
         <v>449</v>
       </c>
@@ -6613,7 +6616,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="B24" t="s">
         <v>450</v>
       </c>
@@ -6621,9 +6624,126 @@
         <v>450</v>
       </c>
     </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="104" t="s">
+        <v>454</v>
+      </c>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>339</v>
+      </c>
+      <c r="K29" s="52" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C26:K26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1"/>
@@ -6656,10 +6776,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="100"/>
+      <c r="G1" s="105"/>
       <c r="I1" s="30" t="s">
         <v>267</v>
       </c>
@@ -6667,10 +6787,10 @@
     <row r="2" spans="1:9">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="101"/>
+      <c r="D2" s="106"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="37"/>
@@ -6953,7 +7073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
@@ -6988,11 +7108,11 @@
       <c r="H1" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="105" t="s">
         <v>279</v>
       </c>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
       <c r="M1" s="30" t="s">
         <v>267</v>
       </c>
@@ -7003,15 +7123,15 @@
     <row r="2" spans="1:23">
       <c r="A2" s="36"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="106" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="101"/>
+      <c r="D2" s="106"/>
       <c r="E2" s="36"/>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="106" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="101"/>
+      <c r="G2" s="106"/>
       <c r="O2" s="88" t="s">
         <v>439</v>
       </c>
